--- a/同音字.xlsx
+++ b/同音字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920CF32-8F31-410E-8F96-F1FB5F01B4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C4B37-4C42-4041-89A7-0F50127FB686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7680" yWindow="2676" windowWidth="11652" windowHeight="9384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="同音字" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="440">
   <si>
     <t>町</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1829,12 +1829,28 @@
     <t>洗濯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>違い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1885,6 +1901,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1906,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1915,6 +1945,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2197,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
@@ -3483,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DCAEB1-5BDC-4C87-894E-E1205032B0CF}">
-  <dimension ref="A2:I119"/>
+  <dimension ref="A2:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4151,19 +4183,19 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:4" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A115" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="6" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:4" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A116" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="6" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4181,6 +4213,22 @@
       </c>
       <c r="B119" s="1" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/同音字.xlsx
+++ b/同音字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C4B37-4C42-4041-89A7-0F50127FB686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B305A3E-5D64-4A2D-A81F-4E580A20C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="同音字" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="448">
   <si>
     <t>町</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1843,6 +1843,57 @@
   </si>
   <si>
     <t>ちがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傾向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>练习）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2227,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E252"/>
+  <dimension ref="A2:E255"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3507,6 +3558,19 @@
         <v>435</v>
       </c>
     </row>
+    <row r="254" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B255" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DCAEB1-5BDC-4C87-894E-E1205032B0CF}">
-  <dimension ref="A2:I122"/>
+  <dimension ref="A2:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4231,6 +4295,25 @@
         <v>438</v>
       </c>
     </row>
+    <row r="124" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/同音字.xlsx
+++ b/同音字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B305A3E-5D64-4A2D-A81F-4E580A20C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84755EEE-EBEF-4F89-9D7F-907583F0320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="461">
   <si>
     <t>町</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1894,6 +1894,58 @@
   </si>
   <si>
     <t>急速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>構想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しりつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうりつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>効率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2278,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E255"/>
+  <dimension ref="A2:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3569,6 +3621,63 @@
     <row r="255" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B255" s="1" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B258" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B259" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B262" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>455</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B265" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A267" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B268" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/同音字.xlsx
+++ b/同音字.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84755EEE-EBEF-4F89-9D7F-907583F0320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E207712-1E48-4666-9F54-86ECF56F7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="464">
   <si>
     <t>町</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1946,6 +1946,18 @@
   </si>
   <si>
     <t>効率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘拐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2330,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E268"/>
+  <dimension ref="A2:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3678,6 +3690,19 @@
     <row r="268" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="B268" s="1" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A270" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B271" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/同音字.xlsx
+++ b/同音字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E207712-1E48-4666-9F54-86ECF56F7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B579D507-E80B-4F79-A4B1-18DFC8F25A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="467">
   <si>
     <t>町</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1958,6 +1958,18 @@
   </si>
   <si>
     <t>誘拐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2342,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E271"/>
+  <dimension ref="A2:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3703,6 +3715,19 @@
     <row r="271" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="B271" s="1" t="s">
         <v>463</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>464</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B274" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/同音字.xlsx
+++ b/同音字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B579D507-E80B-4F79-A4B1-18DFC8F25A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C1F42-C746-45C2-9EE9-C959B53E7137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="477">
   <si>
     <t>町</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1970,6 +1970,46 @@
   </si>
   <si>
     <t>楽曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電気</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2354,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E274"/>
+  <dimension ref="A2:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3728,6 +3768,52 @@
     <row r="274" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="B274" s="1" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A276" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B277" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B278" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A280" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B281" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B282" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B283" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="B284" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
